--- a/Ligas/Liga_ecuador_2025.xlsx
+++ b/Ligas/Liga_ecuador_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4502E12D-92A0-45CC-9EEF-612C1AB9A172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC91ED-3580-4EC4-B7C8-79CB96D08B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="142">
   <si>
     <t>Fecha</t>
   </si>
@@ -440,6 +440,12 @@
   </si>
   <si>
     <t>2025-07-05</t>
+  </si>
+  <si>
+    <t>Empate</t>
+  </si>
+  <si>
+    <t>Resultado</t>
   </si>
 </sst>
 </file>
@@ -812,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:S147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R133" sqref="R133"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,7 +845,7 @@
     <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,8 +900,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="R2" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1006,8 +1018,11 @@
       <c r="R3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1062,8 +1077,11 @@
       <c r="R4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1118,8 +1136,11 @@
       <c r="R5" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1174,8 +1195,11 @@
       <c r="R6" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1230,8 +1254,11 @@
       <c r="R7" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1286,8 +1313,11 @@
       <c r="R8" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -1342,8 +1372,11 @@
       <c r="R9" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1398,8 +1431,11 @@
       <c r="R10" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -1454,8 +1490,11 @@
       <c r="R11" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1510,8 +1549,11 @@
       <c r="R12" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -1566,8 +1608,11 @@
       <c r="R13" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -1622,8 +1667,11 @@
       <c r="R14" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
@@ -1678,8 +1726,11 @@
       <c r="R15" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -1734,8 +1785,11 @@
       <c r="R16" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -1790,8 +1844,11 @@
       <c r="R17" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1846,8 +1903,11 @@
       <c r="R18" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
@@ -1902,8 +1962,11 @@
       <c r="R19" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -1958,8 +2021,11 @@
       <c r="R20" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -2014,8 +2080,11 @@
       <c r="R21" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
@@ -2070,8 +2139,11 @@
       <c r="R22" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2126,8 +2198,11 @@
       <c r="R23" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -2182,8 +2257,11 @@
       <c r="R24" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -2238,8 +2316,11 @@
       <c r="R25" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
@@ -2294,8 +2375,11 @@
       <c r="R26" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
@@ -2350,8 +2434,11 @@
       <c r="R27" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>74</v>
       </c>
@@ -2406,8 +2493,11 @@
       <c r="R28" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
@@ -2462,8 +2552,11 @@
       <c r="R29" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>77</v>
       </c>
@@ -2518,8 +2611,11 @@
       <c r="R30" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>77</v>
       </c>
@@ -2574,8 +2670,11 @@
       <c r="R31" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
@@ -2630,8 +2729,11 @@
       <c r="R32" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2686,8 +2788,11 @@
       <c r="R33" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>85</v>
       </c>
@@ -2742,8 +2847,11 @@
       <c r="R34" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>85</v>
       </c>
@@ -2798,8 +2906,11 @@
       <c r="R35" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
@@ -2854,8 +2965,11 @@
       <c r="R36" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>88</v>
       </c>
@@ -2910,8 +3024,11 @@
       <c r="R37" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>88</v>
       </c>
@@ -2966,8 +3083,11 @@
       <c r="R38" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>88</v>
       </c>
@@ -3022,8 +3142,11 @@
       <c r="R39" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>88</v>
       </c>
@@ -3078,8 +3201,11 @@
       <c r="R40" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3134,8 +3260,11 @@
       <c r="R41" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -3190,8 +3319,11 @@
       <c r="R42" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>93</v>
       </c>
@@ -3246,8 +3378,11 @@
       <c r="R43" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
@@ -3302,8 +3437,11 @@
       <c r="R44" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>93</v>
       </c>
@@ -3358,8 +3496,11 @@
       <c r="R45" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>94</v>
       </c>
@@ -3414,8 +3555,11 @@
       <c r="R46" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -3470,8 +3614,11 @@
       <c r="R47" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -3526,8 +3673,11 @@
       <c r="R48" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -3582,8 +3732,11 @@
       <c r="R49" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -3638,8 +3791,11 @@
       <c r="R50" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -3694,8 +3850,11 @@
       <c r="R51" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -3750,8 +3909,11 @@
       <c r="R52" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -3806,8 +3968,11 @@
       <c r="R53" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -3862,8 +4027,11 @@
       <c r="R54" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -3918,8 +4086,11 @@
       <c r="R55" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -3974,8 +4145,11 @@
       <c r="R56" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>97</v>
       </c>
@@ -4030,8 +4204,11 @@
       <c r="R57" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>97</v>
       </c>
@@ -4086,8 +4263,11 @@
       <c r="R58" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>98</v>
       </c>
@@ -4142,8 +4322,11 @@
       <c r="R59" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>99</v>
       </c>
@@ -4198,8 +4381,11 @@
       <c r="R60" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>100</v>
       </c>
@@ -4254,8 +4440,11 @@
       <c r="R61" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>100</v>
       </c>
@@ -4310,8 +4499,11 @@
       <c r="R62" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>101</v>
       </c>
@@ -4366,8 +4558,11 @@
       <c r="R63" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>102</v>
       </c>
@@ -4422,8 +4617,11 @@
       <c r="R64" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>103</v>
       </c>
@@ -4478,8 +4676,11 @@
       <c r="R65" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>104</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="R66" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>104</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="R67" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="R68" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>105</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="R69" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>105</v>
       </c>
@@ -4758,8 +4971,11 @@
       <c r="R70" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>105</v>
       </c>
@@ -4814,8 +5030,11 @@
       <c r="R71" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>105</v>
       </c>
@@ -4870,8 +5089,11 @@
       <c r="R72" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>106</v>
       </c>
@@ -4926,8 +5148,11 @@
       <c r="R73" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>106</v>
       </c>
@@ -4982,8 +5207,11 @@
       <c r="R74" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>106</v>
       </c>
@@ -5038,8 +5266,11 @@
       <c r="R75" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>107</v>
       </c>
@@ -5094,8 +5325,11 @@
       <c r="R76" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>107</v>
       </c>
@@ -5150,8 +5384,11 @@
       <c r="R77" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>107</v>
       </c>
@@ -5206,8 +5443,11 @@
       <c r="R78" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>107</v>
       </c>
@@ -5262,8 +5502,11 @@
       <c r="R79" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>108</v>
       </c>
@@ -5318,8 +5561,11 @@
       <c r="R80" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>109</v>
       </c>
@@ -5374,8 +5620,11 @@
       <c r="R81" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>109</v>
       </c>
@@ -5430,8 +5679,11 @@
       <c r="R82" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>109</v>
       </c>
@@ -5486,8 +5738,11 @@
       <c r="R83" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>110</v>
       </c>
@@ -5542,8 +5797,11 @@
       <c r="R84" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>110</v>
       </c>
@@ -5598,8 +5856,11 @@
       <c r="R85" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>110</v>
       </c>
@@ -5654,8 +5915,11 @@
       <c r="R86" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>110</v>
       </c>
@@ -5710,8 +5974,11 @@
       <c r="R87" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>111</v>
       </c>
@@ -5766,8 +6033,11 @@
       <c r="R88" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>112</v>
       </c>
@@ -5822,8 +6092,11 @@
       <c r="R89" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>112</v>
       </c>
@@ -5878,8 +6151,11 @@
       <c r="R90" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>112</v>
       </c>
@@ -5934,8 +6210,11 @@
       <c r="R91" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>113</v>
       </c>
@@ -5990,8 +6269,11 @@
       <c r="R92" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>113</v>
       </c>
@@ -6046,8 +6328,11 @@
       <c r="R93" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>113</v>
       </c>
@@ -6102,8 +6387,11 @@
       <c r="R94" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>113</v>
       </c>
@@ -6158,8 +6446,11 @@
       <c r="R95" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>114</v>
       </c>
@@ -6214,8 +6505,11 @@
       <c r="R96" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>115</v>
       </c>
@@ -6270,8 +6564,11 @@
       <c r="R97" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>115</v>
       </c>
@@ -6326,8 +6623,11 @@
       <c r="R98" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>115</v>
       </c>
@@ -6382,8 +6682,11 @@
       <c r="R99" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>116</v>
       </c>
@@ -6438,8 +6741,11 @@
       <c r="R100" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>116</v>
       </c>
@@ -6494,8 +6800,11 @@
       <c r="R101" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>116</v>
       </c>
@@ -6550,8 +6859,11 @@
       <c r="R102" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>116</v>
       </c>
@@ -6606,8 +6918,11 @@
       <c r="R103" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>117</v>
       </c>
@@ -6662,8 +6977,11 @@
       <c r="R104" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>118</v>
       </c>
@@ -6718,8 +7036,11 @@
       <c r="R105" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>121</v>
       </c>
@@ -6774,8 +7095,11 @@
       <c r="R106" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>121</v>
       </c>
@@ -6830,8 +7154,11 @@
       <c r="R107" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>121</v>
       </c>
@@ -6886,8 +7213,11 @@
       <c r="R108" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>122</v>
       </c>
@@ -6942,8 +7272,11 @@
       <c r="R109" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S109" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>122</v>
       </c>
@@ -6998,8 +7331,11 @@
       <c r="R110" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>122</v>
       </c>
@@ -7054,8 +7390,11 @@
       <c r="R111" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>122</v>
       </c>
@@ -7110,8 +7449,11 @@
       <c r="R112" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>123</v>
       </c>
@@ -7166,8 +7508,11 @@
       <c r="R113" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>123</v>
       </c>
@@ -7222,8 +7567,11 @@
       <c r="R114" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>123</v>
       </c>
@@ -7278,8 +7626,11 @@
       <c r="R115" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>126</v>
       </c>
@@ -7334,8 +7685,11 @@
       <c r="R116" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>126</v>
       </c>
@@ -7390,8 +7744,11 @@
       <c r="R117" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>126</v>
       </c>
@@ -7446,8 +7803,11 @@
       <c r="R118" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>126</v>
       </c>
@@ -7502,8 +7862,11 @@
       <c r="R119" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>127</v>
       </c>
@@ -7558,8 +7921,11 @@
       <c r="R120" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>128</v>
       </c>
@@ -7614,8 +7980,11 @@
       <c r="R121" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>128</v>
       </c>
@@ -7670,8 +8039,11 @@
       <c r="R122" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>129</v>
       </c>
@@ -7726,8 +8098,11 @@
       <c r="R123" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>129</v>
       </c>
@@ -7782,8 +8157,11 @@
       <c r="R124" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S124" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>129</v>
       </c>
@@ -7838,8 +8216,11 @@
       <c r="R125" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>129</v>
       </c>
@@ -7894,8 +8275,11 @@
       <c r="R126" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>130</v>
       </c>
@@ -7950,8 +8334,11 @@
       <c r="R127" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>131</v>
       </c>
@@ -8006,8 +8393,11 @@
       <c r="R128" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>132</v>
       </c>
@@ -8062,8 +8452,11 @@
       <c r="R129" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>132</v>
       </c>
@@ -8118,8 +8511,11 @@
       <c r="R130" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>132</v>
       </c>
@@ -8174,8 +8570,11 @@
       <c r="R131" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S131" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>133</v>
       </c>
@@ -8230,8 +8629,11 @@
       <c r="R132" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>133</v>
       </c>
@@ -8286,8 +8688,11 @@
       <c r="R133" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S133" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -8342,8 +8747,11 @@
       <c r="R134" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
@@ -8398,8 +8806,11 @@
       <c r="R135" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -8454,8 +8865,11 @@
       <c r="R136" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>135</v>
       </c>
@@ -8510,8 +8924,11 @@
       <c r="R137" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>136</v>
       </c>
@@ -8566,8 +8983,11 @@
       <c r="R138" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>136</v>
       </c>
@@ -8622,8 +9042,11 @@
       <c r="R139" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>136</v>
       </c>
@@ -8678,8 +9101,11 @@
       <c r="R140" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>137</v>
       </c>
@@ -8734,8 +9160,11 @@
       <c r="R141" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>137</v>
       </c>
@@ -8790,8 +9219,11 @@
       <c r="R142" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>137</v>
       </c>
@@ -8846,8 +9278,11 @@
       <c r="R143" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>137</v>
       </c>
@@ -8902,8 +9337,11 @@
       <c r="R144" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S144" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>138</v>
       </c>
@@ -8958,8 +9396,11 @@
       <c r="R145" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>139</v>
       </c>
@@ -9014,8 +9455,11 @@
       <c r="R146" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S146" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>139</v>
       </c>
@@ -9069,6 +9513,9 @@
       </c>
       <c r="R147" s="2" t="s">
         <v>124</v>
+      </c>
+      <c r="S147" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Ligas/Liga_ecuador_2025.xlsx
+++ b/Ligas/Liga_ecuador_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A25B12-8ED1-4408-8806-E923F69E97EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06504EBB-157A-4D31-9A82-DA38F6033A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,13 +681,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q153" sqref="Q153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">

--- a/Ligas/Liga_ecuador_2025.xlsx
+++ b/Ligas/Liga_ecuador_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:S168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11215,6 +11215,574 @@
         </is>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Independiente del Valle</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Aucas</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1338458</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2</v>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>2</v>
+      </c>
+      <c r="P161" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Universidad Catolica</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Cuniburo</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1338460</v>
+      </c>
+      <c r="G162" t="n">
+        <v>4</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>3</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Orense SC</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>El Nacional</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1338459</v>
+      </c>
+      <c r="G163" t="n">
+        <v>10</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1</v>
+      </c>
+      <c r="P163" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Delfin SC</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Barcelona SC</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1338457</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+      <c r="I164" t="n">
+        <v>4</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Tecnico Universitario</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Macara</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1338461</v>
+      </c>
+      <c r="G165" t="n">
+        <v>4</v>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>4</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Emelec</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Mushuc Runa SC</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1338462</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5</v>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>4</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>LDU de Quito</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1338464</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>2</v>
+      </c>
+      <c r="P167" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Manta FC</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1338463</v>
+      </c>
+      <c r="G168" t="n">
+        <v>6</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Liga_ecuador_2025.xlsx
+++ b/Ligas/Liga_ecuador_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U184"/>
+  <dimension ref="A1:Y193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,26 @@
           <t>Posesión Visita ().1</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Local (%)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Visita (%)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>fuente_tiempos</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>estado_datos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -608,6 +628,10 @@
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -677,6 +701,10 @@
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -746,6 +774,10 @@
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -815,6 +847,10 @@
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -884,6 +920,10 @@
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -953,6 +993,10 @@
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1022,6 +1066,10 @@
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1091,6 +1139,10 @@
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1160,6 +1212,10 @@
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1229,6 +1285,10 @@
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1298,6 +1358,10 @@
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1367,6 +1431,10 @@
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1436,6 +1504,10 @@
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1505,6 +1577,10 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1574,6 +1650,10 @@
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1643,6 +1723,10 @@
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1712,6 +1796,10 @@
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1781,6 +1869,10 @@
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1850,6 +1942,10 @@
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1919,6 +2015,10 @@
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1988,6 +2088,10 @@
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2057,6 +2161,10 @@
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2126,6 +2234,10 @@
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2195,6 +2307,10 @@
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2264,6 +2380,10 @@
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2333,6 +2453,10 @@
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2402,6 +2526,10 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2471,6 +2599,10 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2540,6 +2672,10 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2609,6 +2745,10 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2678,6 +2818,10 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2747,6 +2891,10 @@
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2816,6 +2964,10 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2885,6 +3037,10 @@
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2954,6 +3110,10 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3023,6 +3183,10 @@
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3092,6 +3256,10 @@
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3161,6 +3329,10 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3230,6 +3402,10 @@
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3299,6 +3475,10 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3368,6 +3548,10 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3437,6 +3621,10 @@
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3506,6 +3694,10 @@
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3575,6 +3767,10 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3644,6 +3840,10 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3713,6 +3913,10 @@
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3782,6 +3986,10 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3851,6 +4059,10 @@
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3920,6 +4132,10 @@
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3989,6 +4205,10 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4058,6 +4278,10 @@
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4127,6 +4351,10 @@
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4196,6 +4424,10 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4265,6 +4497,10 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4334,6 +4570,10 @@
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4403,6 +4643,10 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4472,6 +4716,10 @@
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4541,6 +4789,10 @@
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4610,6 +4862,10 @@
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4679,6 +4935,10 @@
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4748,6 +5008,10 @@
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4817,6 +5081,10 @@
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4886,6 +5154,10 @@
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4955,6 +5227,10 @@
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5024,6 +5300,10 @@
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5093,6 +5373,10 @@
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5162,6 +5446,10 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5231,6 +5519,10 @@
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5300,6 +5592,10 @@
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5369,6 +5665,10 @@
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5438,6 +5738,10 @@
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5507,6 +5811,10 @@
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5576,6 +5884,10 @@
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5645,6 +5957,10 @@
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5714,6 +6030,10 @@
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5783,6 +6103,10 @@
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5852,6 +6176,10 @@
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5921,6 +6249,10 @@
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5990,6 +6322,10 @@
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6059,6 +6395,10 @@
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6128,6 +6468,10 @@
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6197,6 +6541,10 @@
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6266,6 +6614,10 @@
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6335,6 +6687,10 @@
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6404,6 +6760,10 @@
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6473,6 +6833,10 @@
       </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6542,6 +6906,10 @@
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6611,6 +6979,10 @@
       </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6680,6 +7052,10 @@
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6749,6 +7125,10 @@
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6818,6 +7198,10 @@
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6887,6 +7271,10 @@
       </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6956,6 +7344,10 @@
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7025,6 +7417,10 @@
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7094,6 +7490,10 @@
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7163,6 +7563,10 @@
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7232,6 +7636,10 @@
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7301,6 +7709,10 @@
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7370,6 +7782,10 @@
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7439,6 +7855,10 @@
       </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7508,6 +7928,10 @@
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7577,6 +8001,10 @@
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7646,6 +8074,10 @@
       </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7715,6 +8147,10 @@
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7784,6 +8220,10 @@
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7853,6 +8293,10 @@
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7922,6 +8366,10 @@
       </c>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7991,6 +8439,10 @@
       </c>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8060,6 +8512,10 @@
       </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8129,6 +8585,10 @@
       </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8198,6 +8658,10 @@
       </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8267,6 +8731,10 @@
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8336,6 +8804,10 @@
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8405,6 +8877,10 @@
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8474,6 +8950,10 @@
       </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8543,6 +9023,10 @@
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8612,6 +9096,10 @@
       </c>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8681,6 +9169,10 @@
       </c>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8750,6 +9242,10 @@
       </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8819,6 +9315,10 @@
       </c>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8888,6 +9388,10 @@
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8957,6 +9461,10 @@
       </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9026,6 +9534,10 @@
       </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9095,6 +9607,10 @@
       </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9164,6 +9680,10 @@
       </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9233,6 +9753,10 @@
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9302,6 +9826,10 @@
       </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9371,6 +9899,10 @@
       </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9440,6 +9972,10 @@
       </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9509,6 +10045,10 @@
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9578,6 +10118,10 @@
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9647,6 +10191,10 @@
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9716,6 +10264,10 @@
       </c>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9785,6 +10337,10 @@
       </c>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9854,6 +10410,10 @@
       </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9923,6 +10483,10 @@
       </c>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9992,6 +10556,10 @@
       </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10061,6 +10629,10 @@
       </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10130,6 +10702,10 @@
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10199,6 +10775,10 @@
       </c>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10268,6 +10848,10 @@
       </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10337,6 +10921,10 @@
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10406,6 +10994,10 @@
       </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10475,6 +11067,10 @@
       </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10544,6 +11140,10 @@
       </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10613,46 +11213,50 @@
       </c>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Independiente del Valle</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>1338441</v>
+        <v>1338444</v>
       </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H148" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I148" t="n">
         <v>2</v>
       </c>
       <c r="J148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
@@ -10664,24 +11268,28 @@
         <v>0</v>
       </c>
       <c r="O148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q148" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R148" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10691,37 +11299,37 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Independiente del Valle</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="D149" t="n">
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>1338445</v>
+        <v>1338441</v>
       </c>
       <c r="G149" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
         <v>2</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" t="n">
         <v>0</v>
@@ -10736,21 +11344,25 @@
         <v>1</v>
       </c>
       <c r="P149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q149" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="R149" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10760,66 +11372,70 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>El Nacional</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Manta FC</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="D150" t="n">
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F150" t="n">
-        <v>1338446</v>
+        <v>1338445</v>
       </c>
       <c r="G150" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H150" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O150" t="n">
         <v>1</v>
       </c>
       <c r="P150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q150" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="R150" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>V</t>
         </is>
       </c>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10829,40 +11445,40 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Delfin SC</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>LDU de Quito</t>
+          <t>Manta FC</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>1338442</v>
+        <v>1338446</v>
       </c>
       <c r="G151" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151" t="n">
         <v>0</v>
@@ -10871,55 +11487,59 @@
         <v>0</v>
       </c>
       <c r="O151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P151" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q151" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R151" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tecnico Universitario</t>
+          <t>Delfin SC</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Orense SC</t>
+          <t>LDU de Quito</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F152" t="n">
-        <v>1338447</v>
+        <v>1338442</v>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H152" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
         <v>2</v>
@@ -10928,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
@@ -10937,19 +11557,19 @@
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q152" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R152" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -10958,21 +11578,25 @@
       </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Tecnico Universitario</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Independiente del Valle</t>
+          <t>Orense SC</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -10982,16 +11606,16 @@
         <v>2</v>
       </c>
       <c r="F153" t="n">
-        <v>1338451</v>
+        <v>1338447</v>
       </c>
       <c r="G153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H153" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I153" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J153" t="n">
         <v>1</v>
@@ -11015,10 +11639,10 @@
         <v>2</v>
       </c>
       <c r="Q153" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="R153" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -11027,6 +11651,10 @@
       </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11036,34 +11664,34 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Manta FC</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Universidad Catolica</t>
+          <t>Independiente del Valle</t>
         </is>
       </c>
       <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1338451</v>
+      </c>
+      <c r="G154" t="n">
         <v>4</v>
       </c>
-      <c r="E154" t="n">
-        <v>2</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1338450</v>
-      </c>
-      <c r="G154" t="n">
-        <v>2</v>
-      </c>
       <c r="H154" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -11072,30 +11700,34 @@
         <v>0</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O154" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q154" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="R154" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>V</t>
         </is>
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11105,34 +11737,34 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LDU de Quito</t>
+          <t>Manta FC</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>Universidad Catolica</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F155" t="n">
-        <v>1338449</v>
+        <v>1338450</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -11141,22 +11773,22 @@
         <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O155" t="n">
         <v>2</v>
       </c>
       <c r="P155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q155" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="R155" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -11165,52 +11797,56 @@
       </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>LDU de Quito</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Tecnico Universitario</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1338453</v>
+        <v>1338449</v>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156" t="n">
         <v>0</v>
@@ -11219,21 +11855,25 @@
         <v>1</v>
       </c>
       <c r="P156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q156" t="n">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="R156" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11243,12 +11883,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cuniburo</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Mushuc Runa SC</t>
+          <t>Tecnico Universitario</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -11258,10 +11898,10 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>1338454</v>
+        <v>1338453</v>
       </c>
       <c r="G157" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H157" t="n">
         <v>5</v>
@@ -11270,31 +11910,31 @@
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q157" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="R157" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -11303,6 +11943,10 @@
       </c>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11312,31 +11956,31 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Orense SC</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Mushuc Runa SC</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>1338456</v>
+        <v>1338454</v>
       </c>
       <c r="G158" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
@@ -11354,24 +11998,28 @@
         <v>0</v>
       </c>
       <c r="O158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" t="n">
         <v>1</v>
       </c>
       <c r="Q158" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R158" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11381,31 +12029,31 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Deportivo Cuenca</t>
+          <t>Orense SC</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Delfin SC</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>1338455</v>
+        <v>1338456</v>
       </c>
       <c r="G159" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -11420,13 +12068,13 @@
         <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q159" t="n">
         <v>66</v>
@@ -11436,51 +12084,55 @@
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>V</t>
         </is>
       </c>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Deportivo Cuenca</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>El Nacional</t>
+          <t>Delfin SC</t>
         </is>
       </c>
       <c r="D160" t="n">
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>1338452</v>
+        <v>1338455</v>
       </c>
       <c r="G160" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -11495,58 +12147,62 @@
         <v>1</v>
       </c>
       <c r="P160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q160" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="R160" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Independiente del Valle</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>1338458</v>
+        <v>1338452</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H161" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" t="n">
         <v>4</v>
       </c>
-      <c r="I161" t="n">
-        <v>2</v>
-      </c>
       <c r="J161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K161" t="n">
         <v>1</v>
@@ -11561,16 +12217,16 @@
         <v>0</v>
       </c>
       <c r="O161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q161" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R161" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -11579,6 +12235,10 @@
       </c>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11588,58 +12248,58 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Universidad Catolica</t>
+          <t>Independiente del Valle</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Cuniburo</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>1338460</v>
+        <v>1338458</v>
       </c>
       <c r="G162" t="n">
+        <v>2</v>
+      </c>
+      <c r="H162" t="n">
         <v>4</v>
       </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L162" t="n">
         <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N162" t="n">
         <v>0</v>
       </c>
       <c r="O162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q162" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="R162" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -11648,6 +12308,10 @@
       </c>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11657,34 +12321,34 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Orense SC</t>
+          <t>Universidad Catolica</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>El Nacional</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1338459</v>
+        <v>1338460</v>
       </c>
       <c r="G163" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H163" t="n">
         <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -11693,67 +12357,71 @@
         <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N163" t="n">
         <v>0</v>
       </c>
       <c r="O163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q163" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R163" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Delfin SC</t>
+          <t>Orense SC</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>1338457</v>
+        <v>1338459</v>
       </c>
       <c r="G164" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -11768,24 +12436,28 @@
         <v>0</v>
       </c>
       <c r="O164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P164" t="n">
         <v>1</v>
       </c>
       <c r="Q164" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="R164" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11795,34 +12467,34 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tecnico Universitario</t>
+          <t>Delfin SC</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>1338461</v>
+        <v>1338457</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
       </c>
       <c r="H165" t="n">
+        <v>3</v>
+      </c>
+      <c r="I165" t="n">
         <v>4</v>
       </c>
-      <c r="I165" t="n">
-        <v>2</v>
-      </c>
       <c r="J165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -11837,24 +12509,28 @@
         <v>0</v>
       </c>
       <c r="O165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q165" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="R165" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>V</t>
         </is>
       </c>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11864,12 +12540,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>Tecnico Universitario</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Mushuc Runa SC</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -11879,16 +12555,16 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1338462</v>
+        <v>1338461</v>
       </c>
       <c r="G166" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H166" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="n">
         <v>4</v>
@@ -11900,22 +12576,22 @@
         <v>0</v>
       </c>
       <c r="M166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N166" t="n">
         <v>0</v>
       </c>
       <c r="O166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P166" t="n">
         <v>0</v>
       </c>
       <c r="Q166" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="R166" t="n">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -11924,6 +12600,10 @@
       </c>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11933,34 +12613,34 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>LDU de Quito</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Deportivo Cuenca</t>
+          <t>Mushuc Runa SC</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>1338464</v>
+        <v>1338462</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -11969,64 +12649,68 @@
         <v>0</v>
       </c>
       <c r="M167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N167" t="n">
         <v>0</v>
       </c>
       <c r="O167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q167" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R167" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>LDU de Quito</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Manta FC</t>
+          <t>Deportivo Cuenca</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F168" t="n">
-        <v>1338463</v>
+        <v>1338464</v>
       </c>
       <c r="G168" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
         <v>1</v>
@@ -12041,64 +12725,68 @@
         <v>0</v>
       </c>
       <c r="N168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q168" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R168" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>LDU de Quito</t>
+          <t>Manta FC</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>1338466</v>
+        <v>1338463</v>
       </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -12113,61 +12801,65 @@
         <v>0</v>
       </c>
       <c r="O169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q169" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R169" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>El Nacional</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>LDU de Quito</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>1338472</v>
+        <v>1338466</v>
       </c>
       <c r="G170" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H170" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -12179,13 +12871,13 @@
         <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q170" t="n">
         <v>55</v>
@@ -12195,11 +12887,15 @@
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>V</t>
         </is>
       </c>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12209,35 +12905,31 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Delfin SC</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="D171" t="n">
         <v>2</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F171" t="n">
-        <v>1338470</v>
+        <v>1338472</v>
       </c>
       <c r="G171" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
-      </c>
-      <c r="I171" t="n">
-        <v>2</v>
-      </c>
-      <c r="J171" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
         <v>0</v>
       </c>
@@ -12245,30 +12937,34 @@
         <v>0</v>
       </c>
       <c r="M171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P171" t="n">
         <v>1</v>
       </c>
       <c r="Q171" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="R171" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12278,31 +12974,31 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Manta FC</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>Delfin SC</t>
         </is>
       </c>
       <c r="D172" t="n">
         <v>2</v>
       </c>
       <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1338470</v>
+      </c>
+      <c r="G172" t="n">
         <v>4</v>
       </c>
-      <c r="F172" t="n">
-        <v>1338465</v>
-      </c>
-      <c r="G172" t="n">
-        <v>3</v>
-      </c>
       <c r="H172" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I172" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J172" t="n">
         <v>2</v>
@@ -12314,67 +13010,71 @@
         <v>0</v>
       </c>
       <c r="M172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N172" t="n">
         <v>0</v>
       </c>
       <c r="O172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P172" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q172" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="R172" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cuniburo</t>
+          <t>Manta FC</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Orense SC</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F173" t="n">
-        <v>1338471</v>
+        <v>1338465</v>
       </c>
       <c r="G173" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -12386,19 +13086,19 @@
         <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q173" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R173" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -12407,6 +13107,10 @@
       </c>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12416,12 +13120,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Mushuc Runa SC</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Tecnico Universitario</t>
+          <t>Orense SC</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -12431,7 +13135,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>1338469</v>
+        <v>1338471</v>
       </c>
       <c r="G174" t="n">
         <v>7</v>
@@ -12443,7 +13147,7 @@
         <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -12464,10 +13168,10 @@
         <v>1</v>
       </c>
       <c r="Q174" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R174" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -12476,6 +13180,10 @@
       </c>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12485,34 +13193,34 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Mushuc Runa SC</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Universidad Catolica</t>
+          <t>Tecnico Universitario</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>1338467</v>
+        <v>1338469</v>
       </c>
       <c r="G175" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -12524,19 +13232,19 @@
         <v>0</v>
       </c>
       <c r="N175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P175" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q175" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="R175" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -12545,6 +13253,10 @@
       </c>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12554,58 +13266,58 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Deportivo Cuenca</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Independiente del Valle</t>
+          <t>Universidad Catolica</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F176" t="n">
-        <v>1338468</v>
+        <v>1338467</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>0</v>
       </c>
       <c r="M176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O176" t="n">
         <v>0</v>
       </c>
       <c r="P176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q176" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="R176" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -12614,11 +13326,15 @@
       </c>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-08-02</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -12628,32 +13344,28 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Independiente del Valle</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F177" t="n">
-        <v>1338477</v>
+        <v>1338468</v>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177" t="n">
         <v>0</v>
@@ -12662,27 +13374,31 @@
         <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q177" t="n">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="R177" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>V</t>
         </is>
       </c>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12692,25 +13408,25 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Deportivo Cuenca</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Orense SC</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>1338480</v>
+        <v>1338477</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12719,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -12734,61 +13450,65 @@
         <v>0</v>
       </c>
       <c r="O178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q178" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="R178" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Independiente del Valle</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>El Nacional</t>
+          <t>Orense SC</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>1338475</v>
+        <v>1338480</v>
       </c>
       <c r="G179" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H179" t="n">
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -12797,22 +13517,22 @@
         <v>0</v>
       </c>
       <c r="M179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N179" t="n">
         <v>0</v>
       </c>
       <c r="O179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P179" t="n">
         <v>0</v>
       </c>
       <c r="Q179" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="R179" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -12821,6 +13541,10 @@
       </c>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12830,40 +13554,40 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>LDU de Quito</t>
+          <t>Independiente del Valle</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Mushuc Runa SC</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1338478</v>
+        <v>1338475</v>
       </c>
       <c r="G180" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
       </c>
       <c r="J180" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M180" t="n">
         <v>0</v>
@@ -12872,16 +13596,16 @@
         <v>0</v>
       </c>
       <c r="O180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q180" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R180" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
@@ -12890,6 +13614,10 @@
       </c>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12899,34 +13627,34 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Universidad Catolica</t>
+          <t>LDU de Quito</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Mushuc Runa SC</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>1338474</v>
+        <v>1338478</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H181" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>2</v>
       </c>
       <c r="J181" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -12941,16 +13669,16 @@
         <v>0</v>
       </c>
       <c r="O181" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q181" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="R181" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="S181" t="inlineStr">
         <is>
@@ -12959,6 +13687,10 @@
       </c>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12968,58 +13700,58 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tecnico Universitario</t>
+          <t>Universidad Catolica</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Manta FC</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F182" t="n">
-        <v>1338479</v>
+        <v>1338474</v>
       </c>
       <c r="G182" t="n">
+        <v>3</v>
+      </c>
+      <c r="H182" t="n">
         <v>7</v>
       </c>
-      <c r="H182" t="n">
+      <c r="I182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J182" t="n">
         <v>4</v>
       </c>
-      <c r="I182" t="n">
-        <v>2</v>
-      </c>
-      <c r="J182" t="n">
-        <v>3</v>
-      </c>
       <c r="K182" t="n">
         <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M182" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P182" t="n">
         <v>1</v>
       </c>
       <c r="Q182" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="R182" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -13028,6 +13760,10 @@
       </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13037,34 +13773,34 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Tecnico Universitario</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>Manta FC</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>1338473</v>
+        <v>1338479</v>
       </c>
       <c r="G183" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
       </c>
       <c r="J183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -13073,99 +13809,764 @@
         <v>0</v>
       </c>
       <c r="M183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O183" t="n">
         <v>1</v>
       </c>
       <c r="P183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q183" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="R183" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Delfin SC</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Cuniburo</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F184" t="n">
-        <v>1338476</v>
+        <v>1338473</v>
       </c>
       <c r="G184" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H184" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M184" t="n">
         <v>0</v>
       </c>
       <c r="N184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q184" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="R184" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>V</t>
         </is>
       </c>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Delfin SC</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Cuniburo</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>3</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1338476</v>
+      </c>
+      <c r="G185" t="n">
+        <v>5</v>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+      <c r="O185" t="n">
+        <v>2</v>
+      </c>
+      <c r="P185" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>52</v>
+      </c>
+      <c r="R185" t="n">
+        <v>48</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Orense SC</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Universidad Catolica</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1338483</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4</v>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>5</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>37</v>
+      </c>
+      <c r="R186" t="n">
+        <v>63</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Mushuc Runa SC</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1338488</v>
+      </c>
+      <c r="G187" t="n">
+        <v>7</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>2</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>65</v>
+      </c>
+      <c r="R187" t="n">
+        <v>35</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Aucas</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>LDU de Quito</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1338482</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4</v>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>5</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>29</v>
+      </c>
+      <c r="R188" t="n">
+        <v>71</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Manta FC</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Independiente del Valle</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1338484</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>10</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2</v>
+      </c>
+      <c r="J189" t="n">
+        <v>3</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>44</v>
+      </c>
+      <c r="R189" t="n">
+        <v>56</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Cuniburo</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Tecnico Universitario</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1338485</v>
+      </c>
+      <c r="G190" t="n">
+        <v>9</v>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>63</v>
+      </c>
+      <c r="R190" t="n">
+        <v>37</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Macara</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Delfin SC</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1338486</v>
+      </c>
+      <c r="G191" t="n">
+        <v>5</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>59</v>
+      </c>
+      <c r="R191" t="n">
+        <v>41</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>El Nacional</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Barcelona SC</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1338481</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>41</v>
+      </c>
+      <c r="R192" t="n">
+        <v>59</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Emelec</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1338487</v>
+      </c>
+      <c r="G193" t="n">
+        <v>3</v>
+      </c>
+      <c r="H193" t="n">
+        <v>6</v>
+      </c>
+      <c r="I193" t="n">
+        <v>4</v>
+      </c>
+      <c r="J193" t="n">
+        <v>4</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1</v>
+      </c>
+      <c r="P193" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>45</v>
+      </c>
+      <c r="R193" t="n">
+        <v>55</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
